--- a/proc_paralelo/multiplicacao_matrizes/db_implementacao.xlsx
+++ b/proc_paralelo/multiplicacao_matrizes/db_implementacao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="9">
   <si>
     <t xml:space="preserve">1 Thread</t>
   </si>
@@ -44,14 +44,18 @@
   </si>
   <si>
     <t xml:space="preserve">512x512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -117,12 +121,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -143,10 +151,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,6 +489,241 @@
       <c r="E19" s="1" t="n">
         <f aca="false">AVERAGE(E14:E18)</f>
         <v>4.1085796</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.2259034</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.205226</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.1999352</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.2473826</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">(1-(C26/$B$26))</f>
+        <v>0.0915320442277542</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">(1-(D26/$B$26))</f>
+        <v>0.114952674461739</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">(1-(E26/$B$26))</f>
+        <v>-0.0950813489305604</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.8949744</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.835742</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.8040144</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.9827578</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <f aca="false">(1-(C28/$B$28))</f>
+        <v>0.0661833455794938</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <f aca="false">(1-(D28/$B$28))</f>
+        <v>0.101634191994765</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <f aca="false">(1-(E28/$B$28))</f>
+        <v>-0.0980848167277189</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>3.8077128</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>3.5143934</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>3.3827336</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>4.1085796</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <f aca="false">(1-(C30/$B$30))</f>
+        <v>0.0770329632003758</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <f aca="false">(1-(D30/$B$30))</f>
+        <v>0.111610098324642</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <f aca="false">(1-(E30/$B$30))</f>
+        <v>-0.0790150979874325</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>0.2259034</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>0.205226</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0.1999352</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0.2473826</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="n">
+        <v>0.0915320442277542</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>0.114952674461739</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>-0.0950813489305604</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>0.8949744</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0.835742</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0.8040144</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0.9827578</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2" t="n">
+        <v>0.0661833455794938</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>0.101634191994765</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>-0.0980848167277189</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>3.8077128</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>3.5143934</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>3.3827336</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>4.1085796</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="n">
+        <v>0.0770329632003758</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>0.111610098324642</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>-0.0790150979874325</v>
       </c>
     </row>
   </sheetData>

--- a/proc_paralelo/multiplicacao_matrizes/db_implementacao.xlsx
+++ b/proc_paralelo/multiplicacao_matrizes/db_implementacao.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="9">
   <si>
     <t xml:space="preserve">1 Thread</t>
   </si>
@@ -57,7 +58,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -77,6 +78,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,7 +154,2277 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Tempo médio de execução
+em segundos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.321915239404926"/>
+          <c:y val="0.026540810660744"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128x128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$35:$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2259034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.205226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1999352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2473826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="7690639"/>
+        <c:axId val="11445391"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="7690639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11445391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11445391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7690639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Tempo médio de execução
+em segundos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.322102762845356"/>
+          <c:y val="0.0267887419464225"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$35:$N$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$36:$N$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.8077128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5143934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3827336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1085796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="2064526"/>
+        <c:axId val="98884516"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2064526"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98884516"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98884516"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064526"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Tempo médio de execução
+em segundos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.322040255031879"/>
+          <c:y val="0.0267629094947251"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256x256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$38:$N$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$39:$N$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8949744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.835742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8040144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9827578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="70057243"/>
+        <c:axId val="67472208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="70057243"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67472208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67472208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70057243"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44167883675154"/>
+          <c:y val="0.0332869726471952"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128x128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$42:$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0915320442277542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.114952674461739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.0950813489305604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="55272092"/>
+        <c:axId val="98442834"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="55272092"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98442834"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98442834"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Ganho</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55272092"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.445361610260969"/>
+          <c:y val="0.0310616597125637"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256x256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$47:$N$47</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$48:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0661833455794938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.101634191994765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.0980848167277189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="85075501"/>
+        <c:axId val="24496439"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="85075501"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24496439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="24496439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Ganho</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85075501"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.445488602450949"/>
+          <c:y val="0.0312471024571164"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$44:$N$44</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$45:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0770329632003758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.111610098324642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.0790150979874325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="20546339"/>
+        <c:axId val="78984669"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="20546339"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78984669"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78984669"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Ganho</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20546339"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="360" y="0"/>
+        <a:ext cx="5758920" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>88920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>158400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13093560" y="9720"/>
+        <a:ext cx="5758920" cy="3184560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6502680" y="0"/>
+        <a:ext cx="5758920" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>793080</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="360" y="3576240"/>
+        <a:ext cx="5669280" cy="3882240"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>792720</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6502320" y="3576240"/>
+        <a:ext cx="5669280" cy="3882240"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>792360</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13004640" y="3576240"/>
+        <a:ext cx="5669280" cy="3882240"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -151,10 +2432,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K49" activeCellId="0" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -622,17 +2903,17 @@
       <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -652,18 +2933,20 @@
       <c r="E36" s="1" t="n">
         <v>0.2473826</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2" t="n">
-        <v>0.0915320442277542</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0.114952674461739</v>
-      </c>
-      <c r="K36" s="2" t="n">
-        <v>-0.0950813489305604</v>
+      <c r="J36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>3.8077128</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>3.5143934</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>3.3827336</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>4.1085796</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,19 +2965,6 @@
       <c r="E37" s="1" t="n">
         <v>0.9827578</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2" t="n">
-        <v>0.0661833455794938</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.101634191994765</v>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>-0.0980848167277189</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
@@ -712,18 +2982,161 @@
       <c r="E38" s="1" t="n">
         <v>4.1085796</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>0.8949744</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>0.835742</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>0.8040144</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>0.9827578</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>0.0915320442277542</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>0.114952674461739</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>-0.0950813489305604</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>0.0661833455794938</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>0.101634191994765</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>-0.0980848167277189</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2" t="n">
+      <c r="B45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="n">
         <v>0.0770329632003758</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="D45" s="2" t="n">
         <v>0.111610098324642</v>
       </c>
-      <c r="K38" s="2" t="n">
+      <c r="E45" s="2" t="n">
         <v>-0.0790150979874325</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>0.0770329632003758</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>0.111610098324642</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>-0.0790150979874325</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>0.0661833455794938</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>0.101634191994765</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>-0.0980848167277189</v>
       </c>
     </row>
   </sheetData>
@@ -735,4 +3148,28 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y27" activeCellId="0" sqref="Y27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>